--- a/program_directory/interpreterAccounting/尚荣医疗：2017年年度报告.xlsx
+++ b/program_directory/interpreterAccounting/尚荣医疗：2017年年度报告.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12600" activeTab="3"/>
+    <workbookView windowWidth="27720" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="合并资产负债表" sheetId="4" r:id="rId1"/>
@@ -2356,15 +2356,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="MingLiU"/>
-        <charset val="134"/>
-      </rPr>
-      <t>销售商品、提供劳务收到的现金</t>
-    </r>
+    <t>销售商品、提供劳务收到的现金</t>
   </si>
   <si>
     <r>
@@ -3034,6 +3026,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>2.</t>
     </r>
     <r>
@@ -4357,10 +4354,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -4441,7 +4438,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4454,9 +4451,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4472,23 +4523,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4503,16 +4552,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4520,51 +4568,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4572,13 +4576,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4598,19 +4595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4622,7 +4607,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4640,7 +4631,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4652,19 +4709,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4676,43 +4757,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4724,61 +4769,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4844,48 +4841,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4918,10 +4873,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4941,155 +4894,199 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="11" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -5233,9 +5230,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" indent="8"/>
     </xf>
@@ -5255,35 +5249,14 @@
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" indent="8"/>
     </xf>
     <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
     <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
@@ -5296,24 +5269,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" wrapText="true" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" indent="8"/>
-    </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5339,29 +5294,11 @@
       <alignment horizontal="left" vertical="top" indent="3"/>
     </xf>
     <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" indent="3"/>
     </xf>
     <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
@@ -5375,9 +5312,6 @@
       <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -5387,19 +5321,7 @@
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top"/>
@@ -5417,7 +5339,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" indent="1"/>
@@ -5435,22 +5357,7 @@
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="39" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="39" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="39" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
@@ -5481,12 +5388,6 @@
     </xf>
     <xf numFmtId="39" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" indent="1"/>
@@ -5502,9 +5403,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -5513,9 +5411,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="39" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -5534,49 +5429,22 @@
     <xf numFmtId="39" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="39" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" indent="10"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
     <xf numFmtId="39" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="39" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="justify"/>
-    </xf>
     <xf numFmtId="39" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="39" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" indent="4"/>
     </xf>
     <xf numFmtId="39" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -5585,24 +5453,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="39" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" indent="10"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="center" indent="10"/>
-    </xf>
     <xf numFmtId="39" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" indent="10"/>
     </xf>
@@ -5639,12 +5492,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" indent="6"/>
     </xf>
@@ -5709,34 +5556,7 @@
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="39" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" indent="4"/>
-    </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" indent="4"/>
-    </xf>
-    <xf numFmtId="39" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -6100,456 +5920,456 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="184" t="s">
+      <c r="D1" s="136" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="186" t="s">
+      <c r="B3" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="187">
+      <c r="C3" s="137">
         <v>763852552.51</v>
       </c>
-      <c r="D3" s="188">
+      <c r="D3" s="138">
         <v>523925091.88</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="189" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="190" t="s">
+      <c r="D4" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="191" t="s">
+      <c r="A5" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="192"/>
-      <c r="C5" s="189" t="s">
+      <c r="B5" s="142"/>
+      <c r="C5" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="190" t="s">
+      <c r="D5" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="193" t="s">
+      <c r="A6" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="195">
+      <c r="C6" s="145">
         <v>143499.9</v>
       </c>
-      <c r="D6" s="196">
+      <c r="D6" s="146">
         <v>1704000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="193" t="s">
+      <c r="A7" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="194" t="s">
+      <c r="B7" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="196">
+      <c r="C7" s="146">
         <v>1050592504.39</v>
       </c>
-      <c r="D7" s="196">
+      <c r="D7" s="146">
         <v>1234237201.62</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="193" t="s">
+      <c r="A8" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="194" t="s">
+      <c r="B8" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="196">
+      <c r="C8" s="146">
         <v>21401059.2</v>
       </c>
-      <c r="D8" s="196">
+      <c r="D8" s="146">
         <v>28554880.12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="191" t="s">
+      <c r="A9" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="197" t="s">
+      <c r="B9" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="189" t="s">
+      <c r="C9" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="198">
+      <c r="D9" s="148">
         <v>202430.58</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="191" t="s">
+      <c r="A10" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="192"/>
-      <c r="C10" s="189" t="s">
+      <c r="B10" s="142"/>
+      <c r="C10" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="190" t="s">
+      <c r="D10" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="194" t="s">
+      <c r="B11" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="196">
+      <c r="C11" s="146">
         <v>63235841.83</v>
       </c>
-      <c r="D11" s="196">
+      <c r="D11" s="146">
         <v>44319418.14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="194" t="s">
+      <c r="B12" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="199">
+      <c r="C12" s="149">
         <v>360851482.51</v>
       </c>
-      <c r="D12" s="196">
+      <c r="D12" s="146">
         <v>327028354.59</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="123" t="s">
+      <c r="A13" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="192"/>
-      <c r="C13" s="189" t="s">
+      <c r="B13" s="142"/>
+      <c r="C13" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="190" t="s">
+      <c r="D13" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="194" t="s">
+      <c r="B14" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="196">
+      <c r="C14" s="146">
         <v>75738425.74</v>
       </c>
-      <c r="D14" s="196">
+      <c r="D14" s="146">
         <v>37062835.65</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="194" t="s">
+      <c r="B15" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="196">
+      <c r="C15" s="146">
         <v>83807202.69</v>
       </c>
-      <c r="D15" s="196">
+      <c r="D15" s="146">
         <v>151227348.26</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="192"/>
-      <c r="C16" s="196">
+      <c r="B16" s="142"/>
+      <c r="C16" s="146">
         <v>2419622568.77</v>
       </c>
-      <c r="D16" s="196">
+      <c r="D16" s="146">
         <v>2348261560.84</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="118" t="s">
+      <c r="A17" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="193" t="s">
+      <c r="B18" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="195">
+      <c r="C18" s="145">
         <v>20000</v>
       </c>
-      <c r="D18" s="196">
+      <c r="D18" s="146">
         <v>652533425</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="192"/>
-      <c r="C19" s="189" t="s">
+      <c r="B19" s="142"/>
+      <c r="C19" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="190" t="s">
+      <c r="D19" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="111" t="s">
+      <c r="A20" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="193" t="s">
+      <c r="B20" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="196">
+      <c r="C20" s="146">
         <v>154431694.28</v>
       </c>
-      <c r="D20" s="196">
+      <c r="D20" s="146">
         <v>99817975.48</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="193" t="s">
+      <c r="B21" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="196">
+      <c r="C21" s="146">
         <v>28005455.28</v>
       </c>
-      <c r="D21" s="196">
+      <c r="D21" s="146">
         <v>8130625.48</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="193" t="s">
+      <c r="B22" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="196">
+      <c r="C22" s="146">
         <v>35967609.19</v>
       </c>
-      <c r="D22" s="196">
+      <c r="D22" s="146">
         <v>38490639.43</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="193" t="s">
+      <c r="A23" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="193" t="s">
+      <c r="B23" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="196">
+      <c r="C23" s="146">
         <v>228235099.4</v>
       </c>
-      <c r="D23" s="196">
+      <c r="D23" s="146">
         <v>225171321.27</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="193" t="s">
+      <c r="A24" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="193" t="s">
+      <c r="B24" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="196">
+      <c r="C24" s="146">
         <v>544821515.47</v>
       </c>
-      <c r="D24" s="196">
+      <c r="D24" s="146">
         <v>244932802.78</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="191" t="s">
+      <c r="A25" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="192"/>
-      <c r="C25" s="189" t="s">
+      <c r="B25" s="142"/>
+      <c r="C25" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="190" t="s">
+      <c r="D25" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="191" t="s">
+      <c r="A26" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="192"/>
-      <c r="C26" s="189" t="s">
+      <c r="B26" s="142"/>
+      <c r="C26" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="190" t="s">
+      <c r="D26" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="191" t="s">
+      <c r="A27" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="192"/>
-      <c r="C27" s="189" t="s">
+      <c r="B27" s="142"/>
+      <c r="C27" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="190" t="s">
+      <c r="D27" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="191" t="s">
+      <c r="A28" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="192"/>
-      <c r="C28" s="189" t="s">
+      <c r="B28" s="142"/>
+      <c r="C28" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="190" t="s">
+      <c r="D28" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="185" t="s">
+      <c r="A29" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="185" t="s">
+      <c r="B29" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="187">
+      <c r="C29" s="137">
         <v>236469249.91</v>
       </c>
-      <c r="D29" s="188">
+      <c r="D29" s="138">
         <v>241706316.7</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="191" t="s">
+      <c r="A30" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="192"/>
-      <c r="C30" s="189" t="s">
+      <c r="B30" s="142"/>
+      <c r="C30" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="190" t="s">
+      <c r="D30" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="111" t="s">
+      <c r="A31" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="193" t="s">
+      <c r="B31" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="196">
+      <c r="C31" s="146">
         <v>156468052.52</v>
       </c>
-      <c r="D31" s="196">
+      <c r="D31" s="146">
         <v>153163297.88</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="111" t="s">
+      <c r="A32" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="193" t="s">
+      <c r="B32" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="195">
+      <c r="C32" s="145">
         <v>7529321.83</v>
       </c>
-      <c r="D32" s="196">
+      <c r="D32" s="146">
         <v>5021378.08</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="111" t="s">
+      <c r="A33" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="193" t="s">
+      <c r="B33" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="196">
+      <c r="C33" s="146">
         <v>42000415.09</v>
       </c>
-      <c r="D33" s="196">
+      <c r="D33" s="146">
         <v>39450734.02</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="111" t="s">
+      <c r="A34" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="193" t="s">
+      <c r="B34" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="196">
+      <c r="C34" s="146">
         <v>456826475.06</v>
       </c>
-      <c r="D34" s="196">
+      <c r="D34" s="146">
         <v>1504948</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="192"/>
-      <c r="C35" s="196">
+      <c r="B35" s="142"/>
+      <c r="C35" s="146">
         <v>1890774888.03</v>
       </c>
-      <c r="D35" s="196">
+      <c r="D35" s="146">
         <v>1709923464.12</v>
       </c>
     </row>
@@ -6557,593 +6377,593 @@
       <c r="A36" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="192"/>
-      <c r="C36" s="200">
+      <c r="B36" s="142"/>
+      <c r="C36" s="150">
         <v>4310397456.8</v>
       </c>
-      <c r="D36" s="200">
+      <c r="D36" s="150">
         <v>4058185024.96</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="201" t="s">
+      <c r="A37" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="183" t="s">
+      <c r="B37" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="108" t="s">
+      <c r="C37" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="108" t="s">
+      <c r="D37" s="83" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="109" t="s">
+      <c r="A38" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="163"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="110"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="98"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="193" t="s">
+      <c r="A39" s="143" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="202" t="s">
+      <c r="B39" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="114">
+      <c r="C39" s="89">
         <v>122441077.44</v>
       </c>
-      <c r="D39" s="114">
+      <c r="D39" s="89">
         <v>205754646.82</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="123" t="s">
+      <c r="A40" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="123"/>
-      <c r="C40" s="190" t="s">
+      <c r="B40" s="93"/>
+      <c r="C40" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="190" t="s">
+      <c r="D40" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="123" t="s">
+      <c r="A41" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="164"/>
-      <c r="C41" s="190" t="s">
+      <c r="B41" s="121"/>
+      <c r="C41" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="190" t="s">
+      <c r="D41" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="193" t="s">
+      <c r="A42" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="202" t="s">
+      <c r="B42" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="114">
+      <c r="C42" s="89">
         <v>27679624.7</v>
       </c>
-      <c r="D42" s="114">
+      <c r="D42" s="89">
         <v>103904164.4</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="193" t="s">
+      <c r="A43" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="202" t="s">
+      <c r="B43" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="114">
+      <c r="C43" s="89">
         <v>862349169.74</v>
       </c>
-      <c r="D43" s="114">
+      <c r="D43" s="89">
         <v>788827135.14</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="193" t="s">
+      <c r="A44" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="202" t="s">
+      <c r="B44" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="114">
+      <c r="C44" s="89">
         <v>71732207.35</v>
       </c>
-      <c r="D44" s="114">
+      <c r="D44" s="89">
         <v>178305496.74</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="193" t="s">
+      <c r="A45" s="143" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="202" t="s">
+      <c r="B45" s="152" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="114">
+      <c r="C45" s="89">
         <v>22319118.46</v>
       </c>
-      <c r="D45" s="114">
+      <c r="D45" s="89">
         <v>21840824.36</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="193" t="s">
+      <c r="A46" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="202" t="s">
+      <c r="B46" s="152" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="114">
+      <c r="C46" s="89">
         <v>150326620.23</v>
       </c>
-      <c r="D46" s="114">
+      <c r="D46" s="89">
         <v>107194225.67</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="193" t="s">
+      <c r="A47" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="202" t="s">
+      <c r="B47" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="122">
+      <c r="C47" s="92">
         <v>1251349.02</v>
       </c>
-      <c r="D47" s="122">
+      <c r="D47" s="92">
         <v>1224195.23</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="185" t="s">
+      <c r="A48" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="203" t="s">
+      <c r="B48" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="204">
+      <c r="C48" s="154">
         <v>24070750.61</v>
       </c>
-      <c r="D48" s="205">
+      <c r="D48" s="155">
         <v>10384151.46</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="111" t="s">
+      <c r="A49" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="B49" s="202" t="s">
+      <c r="B49" s="152" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="114">
+      <c r="C49" s="89">
         <v>170787289.97</v>
       </c>
-      <c r="D49" s="114">
+      <c r="D49" s="89">
         <v>124718777.37</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="123" t="s">
+      <c r="A50" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="164"/>
-      <c r="C50" s="190" t="s">
+      <c r="B50" s="121"/>
+      <c r="C50" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="190" t="s">
+      <c r="D50" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="111" t="s">
+      <c r="A51" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="202" t="s">
+      <c r="B51" s="152" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="114">
+      <c r="C51" s="89">
         <v>54918475.75</v>
       </c>
-      <c r="D51" s="122">
+      <c r="D51" s="92">
         <v>7989480.59</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="123" t="s">
+      <c r="A52" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="164"/>
-      <c r="C52" s="190" t="s">
+      <c r="B52" s="121"/>
+      <c r="C52" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="190" t="s">
+      <c r="D52" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="52" t="s">
+      <c r="A53" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="164"/>
-      <c r="C53" s="206">
+      <c r="B53" s="121"/>
+      <c r="C53" s="156">
         <v>1507875683.27</v>
       </c>
-      <c r="D53" s="114">
+      <c r="D53" s="89">
         <v>1550143097.78</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="118" t="s">
+      <c r="A54" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="164"/>
-      <c r="C54" s="164"/>
-      <c r="D54" s="128"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="98"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="193" t="s">
+      <c r="A55" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="B55" s="202" t="s">
+      <c r="B55" s="152" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="114">
+      <c r="C55" s="89">
         <v>42953709.1</v>
       </c>
-      <c r="D55" s="114">
+      <c r="D55" s="89">
         <v>84596438.4</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="191" t="s">
+      <c r="A56" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="B56" s="164"/>
-      <c r="C56" s="190" t="s">
+      <c r="B56" s="121"/>
+      <c r="C56" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="190" t="s">
+      <c r="D56" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="123" t="s">
+      <c r="A57" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="B57" s="164"/>
-      <c r="C57" s="190" t="s">
+      <c r="B57" s="121"/>
+      <c r="C57" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="190" t="s">
+      <c r="D57" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="123" t="s">
+      <c r="A58" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="B58" s="164"/>
-      <c r="C58" s="190" t="s">
+      <c r="B58" s="121"/>
+      <c r="C58" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="190" t="s">
+      <c r="D58" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="111" t="s">
+      <c r="A59" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="202" t="s">
+      <c r="B59" s="152" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="207" t="s">
+      <c r="C59" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="114">
+      <c r="D59" s="89">
         <v>150000000</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="123" t="s">
+      <c r="A60" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="B60" s="164"/>
-      <c r="C60" s="190" t="s">
+      <c r="B60" s="121"/>
+      <c r="C60" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="190" t="s">
+      <c r="D60" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="123" t="s">
+      <c r="A61" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="164"/>
-      <c r="C61" s="190" t="s">
+      <c r="B61" s="121"/>
+      <c r="C61" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="190" t="s">
+      <c r="D61" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="123" t="s">
+      <c r="A62" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="164"/>
-      <c r="C62" s="190" t="s">
+      <c r="B62" s="121"/>
+      <c r="C62" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="190" t="s">
+      <c r="D62" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="111" t="s">
+      <c r="A63" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="B63" s="202" t="s">
+      <c r="B63" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="C63" s="114">
+      <c r="C63" s="89">
         <v>80669358.37</v>
       </c>
-      <c r="D63" s="114">
+      <c r="D63" s="89">
         <v>84416779.17</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="111" t="s">
+      <c r="A64" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="202" t="s">
+      <c r="B64" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="C64" s="122">
+      <c r="C64" s="92">
         <v>5695038.43</v>
       </c>
-      <c r="D64" s="114">
+      <c r="D64" s="89">
         <v>18107823.39</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="123" t="s">
+      <c r="A65" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="B65" s="164"/>
-      <c r="C65" s="190" t="s">
+      <c r="B65" s="121"/>
+      <c r="C65" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="190" t="s">
+      <c r="D65" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="52" t="s">
+      <c r="A66" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="164"/>
-      <c r="C66" s="208">
+      <c r="B66" s="121"/>
+      <c r="C66" s="89">
         <v>129318105.9</v>
       </c>
-      <c r="D66" s="208">
+      <c r="D66" s="89">
         <v>337121640.96</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="52" t="s">
+      <c r="A67" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="B67" s="164"/>
-      <c r="C67" s="209">
+      <c r="B67" s="121"/>
+      <c r="C67" s="156">
         <v>1637193789.17</v>
       </c>
-      <c r="D67" s="210">
+      <c r="D67" s="89">
         <v>1887264138.74</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="118" t="s">
+      <c r="A68" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="B68" s="164"/>
-      <c r="C68" s="164"/>
-      <c r="D68" s="128"/>
+      <c r="B68" s="121"/>
+      <c r="C68" s="121"/>
+      <c r="D68" s="98"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="111" t="s">
+      <c r="A69" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="B69" s="202" t="s">
+      <c r="B69" s="152" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="114">
+      <c r="C69" s="89">
         <v>705954330</v>
       </c>
-      <c r="D69" s="114">
+      <c r="D69" s="89">
         <v>444066978</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="144" t="s">
+      <c r="A70" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="B70" s="164"/>
-      <c r="C70" s="190" t="s">
+      <c r="B70" s="121"/>
+      <c r="C70" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="190" t="s">
+      <c r="D70" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="123" t="s">
+      <c r="A71" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="164"/>
-      <c r="C71" s="190" t="s">
+      <c r="B71" s="121"/>
+      <c r="C71" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="190" t="s">
+      <c r="D71" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="123" t="s">
+      <c r="A72" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="164"/>
-      <c r="C72" s="190" t="s">
+      <c r="B72" s="121"/>
+      <c r="C72" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="190" t="s">
+      <c r="D72" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="111" t="s">
+      <c r="A73" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="202" t="s">
+      <c r="B73" s="152" t="s">
         <v>109</v>
       </c>
-      <c r="C73" s="114">
+      <c r="C73" s="89">
         <v>903059455.43</v>
       </c>
-      <c r="D73" s="114">
+      <c r="D73" s="89">
         <v>814625747.33</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="111" t="s">
+      <c r="A74" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="B74" s="202" t="s">
+      <c r="B74" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="C74" s="114">
+      <c r="C74" s="89">
         <v>13321644.08</v>
       </c>
-      <c r="D74" s="114">
+      <c r="D74" s="89">
         <v>23285055.24</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="139" t="s">
+      <c r="A75" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="B75" s="202" t="s">
+      <c r="B75" s="152" t="s">
         <v>113</v>
       </c>
-      <c r="C75" s="122">
+      <c r="C75" s="92">
         <v>-4002442.93</v>
       </c>
-      <c r="D75" s="122">
+      <c r="D75" s="92">
         <v>-180853.96</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="144" t="s">
+      <c r="A76" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="B76" s="164"/>
-      <c r="C76" s="190" t="s">
+      <c r="B76" s="121"/>
+      <c r="C76" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="190" t="s">
+      <c r="D76" s="140" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="111" t="s">
+      <c r="A77" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="B77" s="202" t="s">
+      <c r="B77" s="152" t="s">
         <v>116</v>
       </c>
-      <c r="C77" s="114">
+      <c r="C77" s="89">
         <v>38374822.84</v>
       </c>
-      <c r="D77" s="114">
+      <c r="D77" s="89">
         <v>32245524.24</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="111" t="s">
+      <c r="A78" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="202" t="s">
+      <c r="B78" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="C78" s="114">
+      <c r="C78" s="89">
         <v>621303743.65</v>
       </c>
-      <c r="D78" s="114">
+      <c r="D78" s="89">
         <v>496679000.73</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="118" t="s">
+      <c r="A79" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="B79" s="164"/>
-      <c r="C79" s="211">
+      <c r="B79" s="121"/>
+      <c r="C79" s="158">
         <v>2251368264.91</v>
       </c>
-      <c r="D79" s="212">
+      <c r="D79" s="155">
         <v>1764151341.1</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="118" t="s">
+      <c r="A80" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="B80" s="164"/>
-      <c r="C80" s="213">
+      <c r="B80" s="121"/>
+      <c r="C80" s="155">
         <v>421835402.72</v>
       </c>
-      <c r="D80" s="213">
+      <c r="D80" s="155">
         <v>406769545.12</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="52" t="s">
+      <c r="A81" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="B81" s="164"/>
-      <c r="C81" s="214">
+      <c r="B81" s="121"/>
+      <c r="C81" s="156">
         <v>2673203667.63</v>
       </c>
-      <c r="D81" s="208">
+      <c r="D81" s="89">
         <v>2170920886.22</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="215" t="s">
+      <c r="A82" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="B82" s="216"/>
-      <c r="C82" s="217">
+      <c r="B82" s="121"/>
+      <c r="C82" s="156">
         <v>4310397456.8</v>
       </c>
-      <c r="D82" s="133">
+      <c r="D82" s="89">
         <v>4058185024.96</v>
       </c>
     </row>
@@ -7164,8 +6984,8 @@
   <sheetPr/>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -7179,514 +6999,514 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="136" t="s">
+      <c r="D1" s="104" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="138">
+      <c r="C2" s="106">
         <v>2006477112.36</v>
       </c>
-      <c r="D2" s="113">
+      <c r="D2" s="88">
         <v>1946049938.3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="138">
+      <c r="C3" s="106">
         <v>1533731866.04</v>
       </c>
-      <c r="D3" s="113">
+      <c r="D3" s="88">
         <v>1471059232.82</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="113">
+      <c r="C4" s="88">
         <v>19769663.31</v>
       </c>
-      <c r="D4" s="113">
+      <c r="D4" s="88">
         <v>26159996.66</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="113">
+      <c r="C5" s="88">
         <v>69920904.94</v>
       </c>
-      <c r="D5" s="113">
+      <c r="D5" s="88">
         <v>67814986.59</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="107" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="113">
+      <c r="C6" s="88">
         <v>153285633.51</v>
       </c>
-      <c r="D6" s="113">
+      <c r="D6" s="88">
         <v>151141479.01</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="113">
+      <c r="C7" s="88">
         <v>6812755.5</v>
       </c>
-      <c r="D7" s="113">
+      <c r="D7" s="88">
         <v>19454479.74</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="141" t="s">
+      <c r="A8" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="109" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="143">
+      <c r="C8" s="91">
         <v>11916544.96</v>
       </c>
-      <c r="D8" s="143">
+      <c r="D8" s="91">
         <v>61549942.05</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="144" t="s">
+      <c r="A9" s="110" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="145"/>
-      <c r="C9" s="146" t="s">
+      <c r="B9" s="111"/>
+      <c r="C9" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="146" t="s">
+      <c r="D9" s="112" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="138">
+      <c r="C10" s="106">
         <v>-337252.55</v>
       </c>
-      <c r="D10" s="147">
+      <c r="D10" s="113">
         <v>5512163.31</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="148" t="s">
+      <c r="A11" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="145"/>
-      <c r="C11" s="143">
+      <c r="B11" s="111"/>
+      <c r="C11" s="91">
         <v>-4610198.3</v>
       </c>
-      <c r="D11" s="149">
+      <c r="D11" s="115">
         <v>91235.31</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="141" t="s">
+      <c r="A12" s="108" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="109" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="146" t="s">
+      <c r="C12" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="149">
+      <c r="D12" s="115">
         <v>-20954.04</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="150" t="s">
+      <c r="B13" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="151">
+      <c r="C13" s="91">
         <v>14708506.2</v>
       </c>
-      <c r="D13" s="152" t="s">
+      <c r="D13" s="116" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="84" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="153"/>
-      <c r="C14" s="120">
+      <c r="B14" s="111"/>
+      <c r="C14" s="91">
         <v>225410997.75</v>
       </c>
-      <c r="D14" s="154">
+      <c r="D14" s="117">
         <v>154361030.7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="155" t="s">
+      <c r="A15" s="118" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="156" t="s">
+      <c r="B15" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="157">
+      <c r="C15" s="91">
         <v>712611.64</v>
       </c>
-      <c r="D15" s="158">
+      <c r="D15" s="119">
         <v>8368660.6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="118" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="150" t="s">
+      <c r="B16" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="151">
+      <c r="C16" s="91">
         <v>814978.17</v>
       </c>
-      <c r="D16" s="159">
+      <c r="D16" s="115">
         <v>577500.84</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="118" t="s">
+      <c r="A17" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="B17" s="153"/>
-      <c r="C17" s="120">
+      <c r="B17" s="111"/>
+      <c r="C17" s="91">
         <v>225308631.22</v>
       </c>
-      <c r="D17" s="154">
+      <c r="D17" s="117">
         <v>162152190.46</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="155" t="s">
+      <c r="A18" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="C18" s="120">
+      <c r="C18" s="91">
         <v>36134266.95</v>
       </c>
-      <c r="D18" s="120">
+      <c r="D18" s="91">
         <v>25828620.9</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="161" t="s">
+      <c r="A19" s="120" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="153"/>
-      <c r="C19" s="120">
+      <c r="B19" s="111"/>
+      <c r="C19" s="91">
         <v>189174364.27</v>
       </c>
-      <c r="D19" s="154">
+      <c r="D19" s="117">
         <v>136323569.56</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="155" t="s">
+      <c r="A20" s="118" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="162"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="163"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="139" t="s">
+      <c r="A21" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="145"/>
-      <c r="C21" s="164"/>
-      <c r="D21" s="164"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="139" t="s">
+      <c r="A22" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="145"/>
-      <c r="C22" s="113">
+      <c r="B22" s="111"/>
+      <c r="C22" s="88">
         <v>189174364.27</v>
       </c>
-      <c r="D22" s="165">
+      <c r="D22" s="122">
         <v>136323569.56</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="144" t="s">
+      <c r="A23" s="110" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="145"/>
-      <c r="C23" s="146" t="s">
+      <c r="B23" s="111"/>
+      <c r="C23" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="146" t="s">
+      <c r="D23" s="112" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="139" t="s">
+      <c r="A24" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="B24" s="145"/>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="139" t="s">
+      <c r="A25" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="B25" s="145"/>
-      <c r="C25" s="166" t="s">
+      <c r="B25" s="111"/>
+      <c r="C25" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="D25" s="165">
+      <c r="D25" s="122">
         <v>114153558.25</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="139" t="s">
+      <c r="A26" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="145"/>
-      <c r="C26" s="113">
+      <c r="B26" s="111"/>
+      <c r="C26" s="88">
         <v>14014122.49</v>
       </c>
-      <c r="D26" s="113">
+      <c r="D26" s="88">
         <v>22170011.31</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="118" t="s">
+      <c r="A27" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="167"/>
-      <c r="C27" s="151">
+      <c r="B27" s="111"/>
+      <c r="C27" s="91">
         <v>-2769853.86</v>
       </c>
-      <c r="D27" s="168">
+      <c r="D27" s="119">
         <v>2054343.08</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="134" t="s">
+      <c r="A28" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="153"/>
-      <c r="C28" s="120">
+      <c r="B28" s="111"/>
+      <c r="C28" s="91">
         <v>-3821588.97</v>
       </c>
-      <c r="D28" s="169">
+      <c r="D28" s="119">
         <v>2054343.08</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="144" t="s">
+      <c r="A29" s="110" t="s">
         <v>168</v>
       </c>
-      <c r="B29" s="153"/>
-      <c r="C29" s="170" t="s">
+      <c r="B29" s="111"/>
+      <c r="C29" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="170" t="s">
+      <c r="D29" s="112" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="134" t="s">
+      <c r="A30" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="B30" s="153"/>
-      <c r="C30" s="120">
+      <c r="B30" s="111"/>
+      <c r="C30" s="91">
         <v>-3821588.97</v>
       </c>
-      <c r="D30" s="169">
+      <c r="D30" s="119">
         <v>2054343.08</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="171" t="s">
+      <c r="A31" s="124" t="s">
         <v>170</v>
       </c>
-      <c r="B31" s="162"/>
-      <c r="C31" s="157">
+      <c r="B31" s="111"/>
+      <c r="C31" s="91">
         <v>-3821588.97</v>
       </c>
-      <c r="D31" s="158">
+      <c r="D31" s="119">
         <v>2054343.08</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="134" t="s">
+      <c r="A32" s="102" t="s">
         <v>171</v>
       </c>
-      <c r="B32" s="167"/>
-      <c r="C32" s="151">
+      <c r="B32" s="111"/>
+      <c r="C32" s="91">
         <v>1051735.11</v>
       </c>
-      <c r="D32" s="172" t="s">
+      <c r="D32" s="112" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="118" t="s">
+      <c r="A33" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="B33" s="153"/>
-      <c r="C33" s="120">
+      <c r="B33" s="111"/>
+      <c r="C33" s="91">
         <v>186404510.41</v>
       </c>
-      <c r="D33" s="120">
+      <c r="D33" s="91">
         <v>138377912.64</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="155" t="s">
+      <c r="A34" s="118" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="162"/>
-      <c r="C34" s="157">
+      <c r="B34" s="111"/>
+      <c r="C34" s="91">
         <v>171338652.81</v>
       </c>
-      <c r="D34" s="157">
+      <c r="D34" s="91">
         <v>116207901.33</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="139" t="s">
+      <c r="A35" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="B35" s="145"/>
-      <c r="C35" s="113">
+      <c r="B35" s="111"/>
+      <c r="C35" s="88">
         <v>15065857.6</v>
       </c>
-      <c r="D35" s="113">
+      <c r="D35" s="88">
         <v>22170011.31</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="B36" s="145"/>
-      <c r="C36" s="164"/>
-      <c r="D36" s="164"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="139" t="s">
+      <c r="A37" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="B37" s="145"/>
-      <c r="C37" s="113">
+      <c r="B37" s="111"/>
+      <c r="C37" s="88">
         <v>0.26</v>
       </c>
-      <c r="D37" s="173">
+      <c r="D37" s="125">
         <v>0.17</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="155" t="s">
+      <c r="A38" s="118" t="s">
         <v>177</v>
       </c>
-      <c r="B38" s="145"/>
-      <c r="C38" s="143">
+      <c r="B38" s="111"/>
+      <c r="C38" s="91">
         <v>0.26</v>
       </c>
-      <c r="D38" s="174">
+      <c r="D38" s="126">
         <v>0.17</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="175"/>
-      <c r="B39" s="176"/>
-      <c r="C39" s="177"/>
-      <c r="D39" s="78"/>
+      <c r="A39" s="127"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="64"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="76"/>
-      <c r="B40" s="178"/>
-      <c r="C40" s="179"/>
-      <c r="D40" s="177"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="129"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="180"/>
-      <c r="B41" s="178"/>
-      <c r="C41" s="179"/>
-      <c r="D41" s="177"/>
+      <c r="A41" s="132"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="129"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="180"/>
-      <c r="B42" s="178"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="177"/>
+      <c r="A42" s="132"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="129"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="76"/>
-      <c r="B43" s="178"/>
-      <c r="C43" s="181"/>
-      <c r="D43" s="178"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="130"/>
+      <c r="C43" s="133"/>
+      <c r="D43" s="130"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="182"/>
-      <c r="B44" s="178"/>
-      <c r="C44" s="177"/>
-      <c r="D44" s="177"/>
+      <c r="A44" s="134"/>
+      <c r="B44" s="130"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="129"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="182"/>
-      <c r="B45" s="178"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="177"/>
+      <c r="A45" s="134"/>
+      <c r="B45" s="130"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="129"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7699,8 +7519,8 @@
   <sheetPr/>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D13"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -7712,486 +7532,485 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="83" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="84" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="113">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88">
         <v>2159045661.07</v>
       </c>
-      <c r="D3" s="113">
+      <c r="D3" s="88">
         <v>1826019009.1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="114">
+      <c r="B4" s="87"/>
+      <c r="C4" s="89">
         <v>26880757.77</v>
       </c>
-      <c r="D4" s="114">
+      <c r="D4" s="89">
         <v>18848736.97</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="86" t="s">
         <v>184</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="114">
+      <c r="C5" s="89">
         <v>73641684.77</v>
       </c>
-      <c r="D5" s="114">
+      <c r="D5" s="89">
         <v>62243920.44</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="116">
+      <c r="B6" s="87"/>
+      <c r="C6" s="88">
         <v>2259568103.61</v>
       </c>
-      <c r="D6" s="116">
+      <c r="D6" s="88">
         <v>1907111666.51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="86" t="s">
         <v>187</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="117">
+      <c r="B7" s="87"/>
+      <c r="C7" s="88">
         <v>1553426787.13</v>
       </c>
-      <c r="D7" s="117">
+      <c r="D7" s="88">
         <v>1122585087.3</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="114">
+      <c r="B8" s="87"/>
+      <c r="C8" s="89">
         <v>228556406.34</v>
       </c>
-      <c r="D8" s="114">
+      <c r="D8" s="89">
         <v>212167256.03</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="114">
+      <c r="B9" s="87"/>
+      <c r="C9" s="89">
         <v>107992574.61</v>
       </c>
-      <c r="D9" s="114">
+      <c r="D9" s="89">
         <v>94539473.1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="86" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="114">
+      <c r="C10" s="89">
         <v>134198710.07</v>
       </c>
-      <c r="D10" s="114">
+      <c r="D10" s="89">
         <v>196401564.05</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="116">
+      <c r="B11" s="87"/>
+      <c r="C11" s="88">
         <v>2024174478.15</v>
       </c>
-      <c r="D11" s="116">
+      <c r="D11" s="88">
         <v>1625693380.48</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="120">
+      <c r="B12" s="87"/>
+      <c r="C12" s="91">
         <v>235393625.46</v>
       </c>
-      <c r="D12" s="120">
+      <c r="D12" s="91">
         <v>281418286.03</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="113">
+      <c r="B14" s="87"/>
+      <c r="C14" s="88">
         <v>773180000</v>
       </c>
-      <c r="D14" s="113">
+      <c r="D14" s="88">
         <v>122500000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="112"/>
-      <c r="C15" s="113">
+      <c r="B15" s="87"/>
+      <c r="C15" s="88">
         <v>4318302.84</v>
       </c>
-      <c r="D15" s="122">
+      <c r="D15" s="92">
         <v>5420928</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="123" t="s">
+      <c r="A16" s="93" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="112"/>
-      <c r="C16" s="124">
+      <c r="B16" s="87"/>
+      <c r="C16" s="94">
         <v>409010.61</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="93" t="s">
         <v>197</v>
       </c>
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="95" t="s">
         <v>198</v>
       </c>
-      <c r="C17" s="126">
+      <c r="C17" s="96">
         <v>29948048.97</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="114">
+      <c r="C18" s="89">
         <v>822964.89</v>
       </c>
-      <c r="D18" s="114">
+      <c r="D18" s="89">
         <v>35000000</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="B19" s="112"/>
-      <c r="C19" s="116">
+      <c r="B19" s="87"/>
+      <c r="C19" s="88">
         <v>808678327.31</v>
       </c>
-      <c r="D19" s="116">
+      <c r="D19" s="88">
         <v>162920928</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="111" t="s">
+      <c r="A20" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="117">
+      <c r="B20" s="87"/>
+      <c r="C20" s="88">
         <v>345041711.58</v>
       </c>
-      <c r="D20" s="117">
+      <c r="D20" s="88">
         <v>141827756.23</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="114">
+      <c r="B21" s="87"/>
+      <c r="C21" s="89">
         <v>685242074.98</v>
       </c>
-      <c r="D21" s="114">
+      <c r="D21" s="89">
         <v>509669625</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="123" t="s">
+      <c r="A22" s="93" t="s">
         <v>203</v>
       </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="127" t="s">
+      <c r="B22" s="87"/>
+      <c r="C22" s="97" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="111" t="s">
+      <c r="A23" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="B23" s="112"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="B24" s="112"/>
-      <c r="C24" s="116">
+      <c r="B24" s="87"/>
+      <c r="C24" s="88">
         <v>1030283786.56</v>
       </c>
-      <c r="D24" s="116">
+      <c r="D24" s="88">
         <v>651497381.23</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="118" t="s">
+      <c r="A25" s="84" t="s">
         <v>206</v>
       </c>
-      <c r="B25" s="119"/>
-      <c r="C25" s="120">
+      <c r="B25" s="87"/>
+      <c r="C25" s="91">
         <v>-221605459.25</v>
       </c>
-      <c r="D25" s="129">
+      <c r="D25" s="99">
         <v>-488576453.23</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="111" t="s">
+      <c r="A27" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="B27" s="112"/>
-      <c r="C27" s="113">
+      <c r="B27" s="87"/>
+      <c r="C27" s="88">
         <v>359690485.22</v>
       </c>
-      <c r="D27" s="113">
+      <c r="D27" s="88">
         <v>231629625</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="125" t="s">
+      <c r="A28" s="95" t="s">
         <v>209</v>
       </c>
-      <c r="B28" s="112"/>
-      <c r="C28" s="130" t="s">
+      <c r="B28" s="87"/>
+      <c r="C28" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="126">
+      <c r="D28" s="96">
         <v>33629625</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="111" t="s">
+      <c r="A29" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="B29" s="112"/>
-      <c r="C29" s="114">
+      <c r="B29" s="87"/>
+      <c r="C29" s="89">
         <v>996084652.15</v>
       </c>
-      <c r="D29" s="114">
+      <c r="D29" s="89">
         <v>1145041096.48</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="111" t="s">
+      <c r="A30" s="86" t="s">
         <v>211</v>
       </c>
-      <c r="B30" s="115" t="s">
+      <c r="B30" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="113">
+      <c r="C30" s="88">
         <v>169208669.84</v>
       </c>
-      <c r="D30" s="128"/>
+      <c r="D30" s="98"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="B31" s="112"/>
-      <c r="C31" s="116">
+      <c r="B31" s="87"/>
+      <c r="C31" s="88">
         <v>1524983807.21</v>
       </c>
-      <c r="D31" s="116">
+      <c r="D31" s="88">
         <v>1376670721.48</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="111" t="s">
+      <c r="A32" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="B32" s="112"/>
-      <c r="C32" s="117">
+      <c r="B32" s="87"/>
+      <c r="C32" s="88">
         <v>1075273955.67</v>
       </c>
-      <c r="D32" s="117">
+      <c r="D32" s="88">
         <v>1016839238.06</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="111" t="s">
+      <c r="A33" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="B33" s="112"/>
-      <c r="C33" s="114">
+      <c r="B33" s="87"/>
+      <c r="C33" s="89">
         <v>44868783.62</v>
       </c>
-      <c r="D33" s="114">
+      <c r="D33" s="89">
         <v>18186882.49</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="125" t="s">
+      <c r="A34" s="95" t="s">
         <v>215</v>
       </c>
-      <c r="B34" s="112"/>
-      <c r="C34" s="126">
+      <c r="B34" s="87"/>
+      <c r="C34" s="96">
         <v>9620876.33</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="111" t="s">
+      <c r="A35" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="115" t="s">
+      <c r="B35" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="C35" s="114">
+      <c r="C35" s="89">
         <v>193032275.22</v>
       </c>
-      <c r="D35" s="114">
+      <c r="D35" s="89">
         <v>22479601.73</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B36" s="112"/>
-      <c r="C36" s="116">
+      <c r="B36" s="87"/>
+      <c r="C36" s="88">
         <v>1313175014.51</v>
       </c>
-      <c r="D36" s="116">
+      <c r="D36" s="88">
         <v>1057505722.28</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="118" t="s">
+      <c r="A37" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="B37" s="112"/>
-      <c r="C37" s="120">
+      <c r="B37" s="87"/>
+      <c r="C37" s="91">
         <v>211808792.7</v>
       </c>
-      <c r="D37" s="120">
+      <c r="D37" s="91">
         <v>319164999.2</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="B38" s="112"/>
-      <c r="C38" s="131">
+      <c r="B38" s="87"/>
+      <c r="C38" s="101">
         <v>-7009692.5</v>
       </c>
-      <c r="D38" s="132">
+      <c r="D38" s="88">
         <v>2775793.77</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="B39" s="112"/>
-      <c r="C39" s="133">
+      <c r="B39" s="87"/>
+      <c r="C39" s="89">
         <v>218587266.41</v>
       </c>
-      <c r="D39" s="133">
+      <c r="D39" s="89">
         <v>114782625.77</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="134" t="s">
+      <c r="A40" s="102" t="s">
         <v>221</v>
       </c>
-      <c r="B40" s="112"/>
-      <c r="C40" s="120">
+      <c r="B40" s="87"/>
+      <c r="C40" s="91">
         <v>362196422.04</v>
       </c>
-      <c r="D40" s="120">
+      <c r="D40" s="91">
         <v>247413796.27</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="B41" s="115" t="s">
+      <c r="B41" s="90" t="s">
         <v>198</v>
       </c>
-      <c r="C41" s="132">
+      <c r="C41" s="88">
         <v>580783688.45</v>
       </c>
-      <c r="D41" s="132">
+      <c r="D41" s="88">
         <v>362196422.04</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
+  <mergeCells count="1">
     <mergeCell ref="B26:D26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8204,7 +8023,7 @@
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -8248,13 +8067,13 @@
       <c r="D1" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="65" t="s">
         <v>114</v>
       </c>
       <c r="H1" s="42" t="s">
@@ -8263,10 +8082,10 @@
       <c r="I1" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="J1" s="96" t="s">
+      <c r="J1" s="65" t="s">
         <v>228</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="K1" s="76" t="s">
         <v>229</v>
       </c>
     </row>
@@ -8283,7 +8102,7 @@
       <c r="D2" s="46">
         <v>814625747.33</v>
       </c>
-      <c r="E2" s="80">
+      <c r="E2" s="66">
         <v>23285055.24</v>
       </c>
       <c r="F2" s="46">
@@ -8292,16 +8111,16 @@
       <c r="G2" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="H2" s="81">
+      <c r="H2" s="67">
         <v>32245524.24</v>
       </c>
       <c r="I2" s="46">
         <v>496679000.73</v>
       </c>
-      <c r="J2" s="98">
+      <c r="J2" s="77">
         <v>406769545.12</v>
       </c>
-      <c r="K2" s="87">
+      <c r="K2" s="71">
         <v>2170920886.22</v>
       </c>
     </row>
@@ -8312,10 +8131,10 @@
       <c r="B3" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="49" t="s">
         <v>233</v>
       </c>
       <c r="E3" s="48" t="s">
@@ -8324,7 +8143,7 @@
       <c r="F3" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="45" t="s">
         <v>231</v>
       </c>
       <c r="H3" s="48" t="s">
@@ -8341,16 +8160,16 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="50" t="s">
         <v>234</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="49" t="s">
         <v>233</v>
       </c>
       <c r="E4" s="48" t="s">
@@ -8359,7 +8178,7 @@
       <c r="F4" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="45" t="s">
         <v>231</v>
       </c>
       <c r="H4" s="48" t="s">
@@ -8376,16 +8195,16 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="50" t="s">
         <v>235</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="49" t="s">
         <v>233</v>
       </c>
       <c r="E5" s="48" t="s">
@@ -8394,7 +8213,7 @@
       <c r="F5" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="45" t="s">
         <v>231</v>
       </c>
       <c r="H5" s="48" t="s">
@@ -8411,16 +8230,16 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="50" t="s">
         <v>236</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="49" t="s">
         <v>233</v>
       </c>
       <c r="E6" s="48" t="s">
@@ -8429,7 +8248,7 @@
       <c r="F6" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="45" t="s">
         <v>231</v>
       </c>
       <c r="H6" s="48" t="s">
@@ -8446,72 +8265,72 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="52">
         <v>444066978</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="54">
         <v>814625747.33</v>
       </c>
-      <c r="E7" s="82">
+      <c r="E7" s="68">
         <v>23285055.24</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="54">
         <v>-180853.96</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="H7" s="83">
+      <c r="H7" s="69">
         <v>32245524.24</v>
       </c>
-      <c r="I7" s="55">
+      <c r="I7" s="54">
         <v>496679000.73</v>
       </c>
-      <c r="J7" s="99">
+      <c r="J7" s="78">
         <v>406769545.12</v>
       </c>
-      <c r="K7" s="100">
+      <c r="K7" s="70">
         <v>2170920886.22</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="52">
         <v>261887352</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="55">
         <v>88433708.1</v>
       </c>
-      <c r="E8" s="84">
+      <c r="E8" s="68">
         <v>-9963411.16</v>
       </c>
-      <c r="F8" s="85">
+      <c r="F8" s="70">
         <v>-3821588.97</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="H8" s="86">
+      <c r="H8" s="69">
         <v>6129298.6</v>
       </c>
-      <c r="I8" s="101">
+      <c r="I8" s="54">
         <v>124624742.92</v>
       </c>
-      <c r="J8" s="102">
+      <c r="J8" s="78">
         <v>15065857.6</v>
       </c>
-      <c r="K8" s="101">
+      <c r="K8" s="54">
         <v>502282781.41</v>
       </c>
     </row>
@@ -8519,31 +8338,31 @@
       <c r="A9" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="48" t="s">
         <v>233</v>
       </c>
       <c r="C9" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D9" s="60" t="s">
-        <v>233</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="F9" s="87">
+      <c r="D9" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="F9" s="71">
         <v>-3821588.97</v>
       </c>
       <c r="G9" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="48" t="s">
         <v>233</v>
       </c>
       <c r="I9" s="46">
         <v>175160241.78</v>
       </c>
-      <c r="J9" s="98">
+      <c r="J9" s="77">
         <v>15065857.6</v>
       </c>
       <c r="K9" s="46">
@@ -8554,22 +8373,22 @@
       <c r="A10" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="56">
         <v>39853888</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="46">
         <v>310467172.1</v>
       </c>
-      <c r="E10" s="88">
+      <c r="E10" s="66">
         <v>-9963411.16</v>
       </c>
       <c r="F10" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="45" t="s">
         <v>231</v>
       </c>
       <c r="H10" s="48" t="s">
@@ -8581,21 +8400,21 @@
       <c r="J10" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="K10" s="62">
+      <c r="K10" s="46">
         <v>360284471.26</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="56">
         <v>40843506</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="46">
         <v>318846979.22</v>
       </c>
       <c r="E11" s="48" t="s">
@@ -8604,7 +8423,7 @@
       <c r="F11" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="45" t="s">
         <v>231</v>
       </c>
       <c r="H11" s="48" t="s">
@@ -8616,21 +8435,21 @@
       <c r="J11" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="K11" s="62">
+      <c r="K11" s="46">
         <v>359690485.22</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="57" t="s">
         <v>242</v>
       </c>
       <c r="B12" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="49" t="s">
         <v>233</v>
       </c>
       <c r="E12" s="48" t="s">
@@ -8639,7 +8458,7 @@
       <c r="F12" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="45" t="s">
         <v>231</v>
       </c>
       <c r="H12" s="48" t="s">
@@ -8656,16 +8475,16 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="57" t="s">
         <v>243</v>
       </c>
       <c r="B13" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D13" s="65">
+      <c r="D13" s="44">
         <v>593986.04</v>
       </c>
       <c r="E13" s="48" t="s">
@@ -8674,7 +8493,7 @@
       <c r="F13" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="45" t="s">
         <v>231</v>
       </c>
       <c r="H13" s="48" t="s">
@@ -8686,30 +8505,30 @@
       <c r="J13" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="K13" s="103">
+      <c r="K13" s="79">
         <v>593986.04</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="66">
+      <c r="B14" s="58">
         <v>-989618</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14" s="59">
         <v>-8973793.16</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="66">
         <v>-9963411.16</v>
       </c>
       <c r="F14" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="45" t="s">
         <v>231</v>
       </c>
       <c r="H14" s="48" t="s">
@@ -8732,10 +8551,10 @@
       <c r="B15" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="49" t="s">
         <v>233</v>
       </c>
       <c r="E15" s="48" t="s">
@@ -8744,33 +8563,33 @@
       <c r="F15" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="H15" s="89">
+      <c r="H15" s="67">
         <v>6129298.6</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="46">
         <v>-50535498.86</v>
       </c>
       <c r="J15" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="K15" s="62">
+      <c r="K15" s="46">
         <v>-44406200.26</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="57" t="s">
         <v>246</v>
       </c>
       <c r="B16" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="49" t="s">
         <v>233</v>
       </c>
       <c r="E16" s="48" t="s">
@@ -8779,13 +8598,13 @@
       <c r="F16" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="H16" s="89">
+      <c r="H16" s="67">
         <v>6129298.6</v>
       </c>
-      <c r="I16" s="103">
+      <c r="I16" s="79">
         <v>-6129298.6</v>
       </c>
       <c r="J16" s="48" t="s">
@@ -8796,16 +8615,16 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="60" t="s">
         <v>247</v>
       </c>
       <c r="B17" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="49" t="s">
         <v>233</v>
       </c>
       <c r="E17" s="48" t="s">
@@ -8814,33 +8633,33 @@
       <c r="F17" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="45" t="s">
         <v>231</v>
       </c>
       <c r="H17" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="I17" s="62">
+      <c r="I17" s="46">
         <v>-44406200.26</v>
       </c>
       <c r="J17" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="K17" s="62">
+      <c r="K17" s="46">
         <v>-44406200.26</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="57" t="s">
         <v>248</v>
       </c>
       <c r="B18" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="49" t="s">
         <v>233</v>
       </c>
       <c r="E18" s="48" t="s">
@@ -8849,7 +8668,7 @@
       <c r="F18" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="45" t="s">
         <v>231</v>
       </c>
       <c r="H18" s="48" t="s">
@@ -8869,13 +8688,13 @@
       <c r="A19" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="65">
+      <c r="B19" s="44">
         <v>222033464</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D19" s="62">
+      <c r="D19" s="46">
         <v>-222033464</v>
       </c>
       <c r="E19" s="48" t="s">
@@ -8884,7 +8703,7 @@
       <c r="F19" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="45" t="s">
         <v>231</v>
       </c>
       <c r="H19" s="48" t="s">
@@ -8901,16 +8720,16 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="B20" s="65">
+      <c r="B20" s="44">
         <v>222033464</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D20" s="62">
+      <c r="D20" s="46">
         <v>-222033464</v>
       </c>
       <c r="E20" s="48" t="s">
@@ -8919,7 +8738,7 @@
       <c r="F20" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="G20" s="45" t="s">
         <v>231</v>
       </c>
       <c r="H20" s="48" t="s">
@@ -8936,16 +8755,16 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="57" t="s">
         <v>251</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="49" t="s">
         <v>233</v>
       </c>
       <c r="E21" s="48" t="s">
@@ -8954,7 +8773,7 @@
       <c r="F21" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="45" t="s">
         <v>231</v>
       </c>
       <c r="H21" s="48" t="s">
@@ -8971,16 +8790,16 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="57" t="s">
         <v>252</v>
       </c>
       <c r="B22" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="49" t="s">
         <v>233</v>
       </c>
       <c r="E22" s="48" t="s">
@@ -8989,7 +8808,7 @@
       <c r="F22" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="45" t="s">
         <v>231</v>
       </c>
       <c r="H22" s="48" t="s">
@@ -9006,16 +8825,16 @@
       </c>
     </row>
     <row r="23" ht="28.5" spans="1:11">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="61" t="s">
         <v>253</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="49" t="s">
         <v>233</v>
       </c>
       <c r="E23" s="48" t="s">
@@ -9024,7 +8843,7 @@
       <c r="F23" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="45" t="s">
         <v>231</v>
       </c>
       <c r="H23" s="48" t="s">
@@ -9041,16 +8860,16 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="57" t="s">
         <v>254</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="49" t="s">
         <v>233</v>
       </c>
       <c r="E24" s="48" t="s">
@@ -9059,7 +8878,7 @@
       <c r="F24" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="45" t="s">
         <v>231</v>
       </c>
       <c r="H24" s="48" t="s">
@@ -9082,10 +8901,10 @@
       <c r="B25" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="49" t="s">
         <v>233</v>
       </c>
       <c r="E25" s="48" t="s">
@@ -9094,7 +8913,7 @@
       <c r="F25" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G25" s="49" t="s">
+      <c r="G25" s="45" t="s">
         <v>231</v>
       </c>
       <c r="H25" s="48" t="s">
@@ -9111,16 +8930,16 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="57" t="s">
         <v>256</v>
       </c>
       <c r="B26" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="49" t="s">
         <v>233</v>
       </c>
       <c r="E26" s="48" t="s">
@@ -9129,7 +8948,7 @@
       <c r="F26" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="45" t="s">
         <v>231</v>
       </c>
       <c r="H26" s="48" t="s">
@@ -9146,16 +8965,16 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="57" t="s">
         <v>257</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="49" t="s">
         <v>233</v>
       </c>
       <c r="E27" s="48" t="s">
@@ -9164,7 +8983,7 @@
       <c r="F27" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="45" t="s">
         <v>231</v>
       </c>
       <c r="H27" s="48" t="s">
@@ -9184,34 +9003,34 @@
       <c r="A28" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="B28" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="C28" s="71" t="s">
+      <c r="B28" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D28" s="72" t="s">
-        <v>233</v>
-      </c>
-      <c r="E28" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="F28" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="G28" s="71" t="s">
+      <c r="D28" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="G28" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="H28" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="I28" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="J28" s="70" t="s">
-        <v>233</v>
-      </c>
-      <c r="K28" s="70" t="s">
+      <c r="H28" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="I28" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="J28" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="K28" s="48" t="s">
         <v>233</v>
       </c>
     </row>
@@ -9219,49 +9038,49 @@
       <c r="A29" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="44">
         <v>705954330</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="75">
+      <c r="D29" s="46">
         <v>903059455.43</v>
       </c>
-      <c r="E29" s="90">
+      <c r="E29" s="66">
         <v>13321644.08</v>
       </c>
-      <c r="F29" s="91">
+      <c r="F29" s="71">
         <v>-4002442.93</v>
       </c>
-      <c r="G29" s="74" t="s">
+      <c r="G29" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="H29" s="92" t="s">
+      <c r="H29" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="I29" s="75">
+      <c r="I29" s="46">
         <v>621303743.65</v>
       </c>
-      <c r="J29" s="104">
+      <c r="J29" s="77">
         <v>421835402.72</v>
       </c>
-      <c r="K29" s="91">
+      <c r="K29" s="71">
         <v>2673203667.63</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="76"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="105"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9694,7 +9513,7 @@
         <v>2203815.54</v>
       </c>
     </row>
-    <row r="8" ht="23.25" spans="1:3">
+    <row r="8" ht="24" spans="1:3">
       <c r="A8" s="13" t="s">
         <v>292</v>
       </c>
